--- a/sampleexcelfile/result.xlsx
+++ b/sampleexcelfile/result.xlsx
@@ -38,28 +38,28 @@
     <t>age (s2)</t>
   </si>
   <si>
+    <t>Pradeep5</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Pradeep4</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Pradeep11</t>
+  </si>
+  <si>
+    <t>Pradeep12</t>
+  </si>
+  <si>
+    <t>Pradeep7</t>
+  </si>
+  <si>
     <t>Pradeep2</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>Pradeep4</t>
-  </si>
-  <si>
-    <t>Pradeep5</t>
-  </si>
-  <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>Pradeep7</t>
-  </si>
-  <si>
-    <t>Pradeep11</t>
-  </si>
-  <si>
-    <t>Pradeep12</t>
   </si>
   <si>
     <t>Pradeep24</t>
@@ -149,19 +149,13 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -172,10 +166,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="5">
@@ -185,25 +185,19 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>17500.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8000.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>35.0</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8000.0</v>
       </c>
     </row>
     <row r="7">
@@ -211,7 +205,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
